--- a/competitions-to-import.xlsx
+++ b/competitions-to-import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Databases\ANW\anw-website-parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\projects\ferris-anw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648E9BEC-EBAF-4E99-B735-8625097CD462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14AC8F4-33C9-4CD9-9BB9-A9F31F851E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="435" xr2:uid="{253E5D9B-7B3B-44F8-9EEB-F7D06CBF191B}"/>
+    <workbookView xWindow="1230" yWindow="480" windowWidth="27015" windowHeight="14985" tabRatio="435" xr2:uid="{253E5D9B-7B3B-44F8-9EEB-F7D06CBF191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="78">
   <si>
     <t>Ninjobstacles</t>
   </si>
@@ -255,6 +255,21 @@
   </si>
   <si>
     <t>is_attendance_planned</t>
+  </si>
+  <si>
+    <t>Ninja Hub</t>
+  </si>
+  <si>
+    <t>Leap Ninja</t>
+  </si>
+  <si>
+    <t>Conquer Ninja - Fargo</t>
+  </si>
+  <si>
+    <t>Ninja Fortress</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -635,18 +650,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15EFF66-9F73-44F6-9DF3-0EC2B8A5919C}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -703,8 +718,8 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,8 +766,8 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -962,7 +977,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1">
         <v>45598</v>
@@ -977,7 +992,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
         <v>45598</v>
@@ -992,7 +1007,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>45598</v>
@@ -1007,12 +1022,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>45598</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>45599</v>
+      </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +1039,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1">
         <v>45598</v>
@@ -1042,7 +1059,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="1">
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="C25" s="1">
         <v>45606</v>
@@ -1140,7 +1157,9 @@
       <c r="B31" s="1">
         <v>45605</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <v>45605</v>
+      </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
@@ -1247,7 +1266,9 @@
       <c r="B38" s="1">
         <v>45619</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1">
+        <v>45619</v>
+      </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
@@ -1394,14 +1415,12 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B48" s="1">
-        <v>45660</v>
-      </c>
-      <c r="C48" s="1">
-        <v>45661</v>
-      </c>
+        <v>45641</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="D48" t="s">
         <v>16</v>
       </c>
@@ -1411,13 +1430,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1">
+        <v>45660</v>
+      </c>
+      <c r="C49" s="1">
         <v>45661</v>
-      </c>
-      <c r="C49" s="1">
-        <v>45662</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
@@ -1428,13 +1447,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1">
-        <v>45667</v>
+        <v>45661</v>
       </c>
       <c r="C50" s="1">
-        <v>45668</v>
+        <v>45662</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
@@ -1448,9 +1467,11 @@
         <v>56</v>
       </c>
       <c r="B51" s="1">
-        <v>45668</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>45660</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45661</v>
+      </c>
       <c r="D51" t="s">
         <v>16</v>
       </c>
@@ -1460,13 +1481,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
+        <v>45667</v>
+      </c>
+      <c r="C52" s="1">
         <v>45668</v>
-      </c>
-      <c r="C52" s="1">
-        <v>45669</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
@@ -1477,14 +1498,12 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B53" s="1">
         <v>45668</v>
       </c>
-      <c r="C53" s="1">
-        <v>45669</v>
-      </c>
+      <c r="C53" s="1"/>
       <c r="D53" t="s">
         <v>16</v>
       </c>
@@ -1494,10 +1513,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="3">
-        <v>45675</v>
+        <v>45668</v>
+      </c>
+      <c r="C54" s="3">
+        <v>45669</v>
       </c>
       <c r="D54" t="s">
         <v>16</v>
@@ -1508,13 +1530,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B55" s="3">
-        <v>45675</v>
+        <v>45668</v>
       </c>
       <c r="C55" s="3">
-        <v>45676</v>
+        <v>45668</v>
       </c>
       <c r="D55" t="s">
         <v>16</v>
@@ -1525,14 +1547,12 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B56" s="3">
-        <v>45681</v>
-      </c>
-      <c r="C56" s="3">
-        <v>45682</v>
-      </c>
+        <v>45669</v>
+      </c>
+      <c r="C56" s="3"/>
       <c r="D56" t="s">
         <v>16</v>
       </c>
@@ -1542,10 +1562,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B57" s="3">
-        <v>45682</v>
+        <v>45675</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
@@ -1556,10 +1576,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B58" s="3">
-        <v>45682</v>
+        <v>45675</v>
       </c>
       <c r="D58" t="s">
         <v>16</v>
@@ -1570,10 +1590,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B59" s="3">
-        <v>45682</v>
+        <v>45675</v>
+      </c>
+      <c r="C59" s="3">
+        <v>45676</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
@@ -1584,10 +1607,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3">
-        <v>45696</v>
+        <v>45681</v>
+      </c>
+      <c r="C60" s="3">
+        <v>45682</v>
       </c>
       <c r="D60" t="s">
         <v>16</v>
@@ -1598,10 +1624,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B61" s="3">
-        <v>45696</v>
+        <v>45682</v>
+      </c>
+      <c r="C61" s="3">
+        <v>45682</v>
       </c>
       <c r="D61" t="s">
         <v>16</v>
@@ -1612,10 +1641,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B62" s="3">
-        <v>45696</v>
+        <v>45682</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
@@ -1626,14 +1655,12 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B63" s="3">
-        <v>45696</v>
-      </c>
-      <c r="C63" s="3">
-        <v>45697</v>
-      </c>
+        <v>45682</v>
+      </c>
+      <c r="C63" s="3"/>
       <c r="D63" t="s">
         <v>16</v>
       </c>
@@ -1643,14 +1670,12 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B64" s="3">
-        <v>45696</v>
-      </c>
-      <c r="C64" s="3">
-        <v>45697</v>
-      </c>
+        <v>45689</v>
+      </c>
+      <c r="C64" s="3"/>
       <c r="D64" t="s">
         <v>16</v>
       </c>
@@ -1660,10 +1685,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B65" s="3">
-        <v>45703</v>
+        <v>45696</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
@@ -1674,10 +1699,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B66" s="3">
-        <v>45703</v>
+        <v>45696</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
@@ -1688,10 +1713,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B67" s="3">
-        <v>45703</v>
+        <v>45696</v>
       </c>
       <c r="D67" t="s">
         <v>16</v>
@@ -1702,13 +1727,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B68" s="3">
-        <v>45703</v>
+        <v>45696</v>
       </c>
       <c r="C68" s="3">
-        <v>45704</v>
+        <v>45697</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
@@ -1719,13 +1744,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B69" s="3">
-        <v>45703</v>
+        <v>45696</v>
       </c>
       <c r="C69" s="3">
-        <v>45704</v>
+        <v>45696</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
@@ -1736,10 +1761,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B70" s="3">
-        <v>45704</v>
+        <v>45703</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -1750,10 +1775,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B71" s="3">
-        <v>45710</v>
+        <v>45703</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
@@ -1764,10 +1789,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B72" s="3">
-        <v>45710</v>
+        <v>45703</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
@@ -1778,13 +1803,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B73" s="3">
-        <v>45710</v>
+        <v>45703</v>
       </c>
       <c r="C73" s="3">
-        <v>45711</v>
+        <v>45704</v>
       </c>
       <c r="D73" t="s">
         <v>16</v>
@@ -1795,10 +1820,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B74" s="3">
-        <v>45731</v>
+        <v>45703</v>
+      </c>
+      <c r="C74" s="3">
+        <v>45704</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
@@ -1809,10 +1837,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B75" s="3">
-        <v>45732</v>
+        <v>45704</v>
       </c>
       <c r="D75" t="s">
         <v>16</v>
@@ -1823,10 +1851,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B76" s="3">
-        <v>45738</v>
+        <v>45710</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
@@ -1837,10 +1865,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B77" s="3">
-        <v>45738</v>
+        <v>45710</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
@@ -1851,10 +1879,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B78" s="3">
-        <v>45738</v>
+        <v>45710</v>
+      </c>
+      <c r="C78" s="3">
+        <v>45711</v>
       </c>
       <c r="D78" t="s">
         <v>16</v>
@@ -1865,10 +1896,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B79" s="3">
-        <v>45745</v>
+        <v>45710</v>
+      </c>
+      <c r="C79" s="3">
+        <v>45711</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
@@ -1879,10 +1913,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B80" s="3">
-        <v>45745</v>
+        <v>45731</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
@@ -1893,14 +1927,12 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B81" s="3">
-        <v>45745</v>
-      </c>
-      <c r="C81" s="3">
-        <v>45746</v>
-      </c>
+        <v>45738</v>
+      </c>
+      <c r="C81" s="3"/>
       <c r="D81" t="s">
         <v>16</v>
       </c>
@@ -1910,14 +1942,12 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82" s="3">
-        <v>45745</v>
-      </c>
-      <c r="C82" s="3">
-        <v>45746</v>
-      </c>
+        <v>45738</v>
+      </c>
+      <c r="C82" s="3"/>
       <c r="D82" t="s">
         <v>16</v>
       </c>
@@ -1927,10 +1957,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B83" s="3">
-        <v>45746</v>
+        <v>45738</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
@@ -1941,14 +1971,12 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B84" s="3">
-        <v>45752</v>
-      </c>
-      <c r="C84" s="3">
-        <v>45753</v>
-      </c>
+        <v>45738</v>
+      </c>
+      <c r="C84" s="3"/>
       <c r="D84" t="s">
         <v>16</v>
       </c>
@@ -1958,14 +1986,12 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B85" s="3">
-        <v>45752</v>
-      </c>
-      <c r="C85" s="3">
-        <v>45753</v>
-      </c>
+        <v>45745</v>
+      </c>
+      <c r="C85" s="3"/>
       <c r="D85" t="s">
         <v>16</v>
       </c>
@@ -1975,15 +2001,139 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="3">
+        <v>45745</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="3">
+        <v>45745</v>
+      </c>
+      <c r="C87" s="3">
+        <v>45746</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="3">
+        <v>45745</v>
+      </c>
+      <c r="C88" s="3">
+        <v>45745</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="3">
+        <v>45746</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="3">
+        <v>45746</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="3">
+        <v>45752</v>
+      </c>
+      <c r="C91" s="3">
+        <v>45753</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" s="3">
+        <v>45752</v>
+      </c>
+      <c r="C92" s="3">
+        <v>45752</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>71</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B93" s="3">
         <v>45759</v>
       </c>
-      <c r="D86" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="3">
+        <v>45766</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
         <v>17</v>
       </c>
     </row>

--- a/competitions-to-import.xlsx
+++ b/competitions-to-import.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\projects\ferris-anw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E30856D-B51F-4D4D-A7F1-1A16641B399D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A6F160-3879-4E53-A2FE-B8FE8CD77F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" tabRatio="435" xr2:uid="{253E5D9B-7B3B-44F8-9EEB-F7D06CBF191B}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" tabRatio="435" xr2:uid="{253E5D9B-7B3B-44F8-9EEB-F7D06CBF191B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
   <si>
     <t>Ninjobstacles</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>305 Ninja Academy</t>
+  </si>
+  <si>
+    <t>Paragon Performance Sports</t>
+  </si>
+  <si>
+    <t>Fortified Fitness</t>
   </si>
 </sst>
 </file>
@@ -521,14 +527,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930DDF1E-10E0-426F-B2C1-AF7A61F812D6}">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F8379-6E50-4A95-83D0-2F53C6ED70A3}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F31"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -552,13 +563,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
-        <v>45738</v>
+        <v>45612</v>
       </c>
       <c r="C2" s="1">
-        <v>45739</v>
+        <v>45613</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -569,11 +580,14 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>45738</v>
       </c>
+      <c r="C3" s="1">
+        <v>45739</v>
+      </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
@@ -583,10 +597,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
-        <v>45745</v>
+        <v>45738</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -597,10 +611,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>45752</v>
+        <v>45745</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -611,14 +625,12 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>45752</v>
       </c>
-      <c r="C6" s="1">
-        <v>45753</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" t="s">
         <v>35</v>
       </c>
@@ -628,13 +640,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
-        <v>45758</v>
+        <v>45752</v>
       </c>
       <c r="C7" s="1">
-        <v>45759</v>
+        <v>45753</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
@@ -645,9 +657,12 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C8" s="1">
         <v>45759</v>
       </c>
       <c r="D8" t="s">
@@ -659,7 +674,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>45759</v>
@@ -674,14 +689,12 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>45759</v>
       </c>
-      <c r="C10" s="1">
-        <v>45760</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" t="s">
         <v>35</v>
       </c>
@@ -691,12 +704,14 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1">
-        <v>45766</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>45759</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45760</v>
+      </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
@@ -706,14 +721,12 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
         <v>45766</v>
       </c>
-      <c r="C12" s="1">
-        <v>45767</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>35</v>
       </c>
@@ -723,13 +736,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>45772</v>
+        <v>45766</v>
       </c>
       <c r="C13" s="1">
-        <v>45773</v>
+        <v>45767</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -740,9 +753,12 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C14" s="1">
         <v>45773</v>
       </c>
       <c r="D14" t="s">
@@ -754,14 +770,12 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>45773</v>
       </c>
-      <c r="C15" s="1">
-        <v>45774</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" t="s">
         <v>35</v>
       </c>
@@ -771,7 +785,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>45773</v>
@@ -788,10 +802,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
-        <v>45780</v>
+        <v>45773</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45774</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
@@ -802,14 +819,12 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
         <v>45780</v>
       </c>
-      <c r="C18" s="1">
-        <v>45781</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" t="s">
         <v>35</v>
       </c>
@@ -819,7 +834,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1">
         <v>45780</v>
@@ -836,7 +851,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1">
         <v>45780</v>
@@ -853,9 +868,12 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C21" s="1">
         <v>45781</v>
       </c>
       <c r="D21" t="s">
@@ -867,10 +885,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>45787</v>
+        <v>45781</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -881,7 +899,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>45787</v>
@@ -896,10 +914,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
-        <v>45794</v>
+        <v>45787</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" t="s">
@@ -911,14 +929,12 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1">
         <v>45794</v>
       </c>
-      <c r="C25" s="1">
-        <v>45795</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" t="s">
         <v>35</v>
       </c>
@@ -928,13 +944,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1">
-        <v>45801</v>
+        <v>45794</v>
       </c>
       <c r="C26" s="1">
-        <v>45802</v>
+        <v>45795</v>
       </c>
       <c r="D26" t="s">
         <v>35</v>
@@ -945,10 +961,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>45808</v>
+        <v>45801</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45802</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
@@ -959,14 +978,12 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1">
-        <v>45814</v>
-      </c>
-      <c r="C28" s="1">
-        <v>45815</v>
-      </c>
+        <v>45808</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" t="s">
         <v>35</v>
       </c>
@@ -976,10 +993,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1">
-        <v>45815</v>
+        <v>45814</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" t="s">
@@ -991,12 +1008,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1">
-        <v>45816</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>45814</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45815</v>
+      </c>
       <c r="D30" t="s">
         <v>35</v>
       </c>
@@ -1006,16 +1025,58 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" t="s">
         <v>35</v>
       </c>
       <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45815</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
         <v>10</v>
       </c>
     </row>

--- a/competitions-to-import.xlsx
+++ b/competitions-to-import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\projects\ferris-anw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A6F160-3879-4E53-A2FE-B8FE8CD77F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAF6546-1994-4C70-B2C2-74B82A799E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" tabRatio="435" xr2:uid="{253E5D9B-7B3B-44F8-9EEB-F7D06CBF191B}"/>
+    <workbookView xWindow="2985" yWindow="1860" windowWidth="22755" windowHeight="12480" tabRatio="435" xr2:uid="{253E5D9B-7B3B-44F8-9EEB-F7D06CBF191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
   <si>
     <t>Ninjobstacles</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>Fortified Fitness</t>
+  </si>
+  <si>
+    <t>Free Spirit</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge - Marlborough</t>
+  </si>
+  <si>
+    <t>The Barn</t>
   </si>
 </sst>
 </file>
@@ -528,17 +537,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F8379-6E50-4A95-83D0-2F53C6ED70A3}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -630,7 +640,6 @@
       <c r="B6" s="1">
         <v>45752</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" t="s">
         <v>35</v>
       </c>
@@ -679,7 +688,6 @@
       <c r="B9" s="1">
         <v>45759</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" t="s">
         <v>35</v>
       </c>
@@ -694,7 +702,6 @@
       <c r="B10" s="1">
         <v>45759</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="D10" t="s">
         <v>35</v>
       </c>
@@ -726,7 +733,6 @@
       <c r="B12" s="1">
         <v>45766</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>35</v>
       </c>
@@ -736,14 +742,11 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1">
         <v>45766</v>
       </c>
-      <c r="C13" s="1">
-        <v>45767</v>
-      </c>
       <c r="D13" t="s">
         <v>35</v>
       </c>
@@ -753,13 +756,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>45772</v>
+        <v>45766</v>
       </c>
       <c r="C14" s="1">
-        <v>45773</v>
+        <v>45767</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
@@ -770,12 +773,14 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C15" s="1">
         <v>45773</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="D15" t="s">
         <v>35</v>
       </c>
@@ -785,14 +790,11 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>45773</v>
       </c>
-      <c r="C16" s="1">
-        <v>45774</v>
-      </c>
       <c r="D16" t="s">
         <v>35</v>
       </c>
@@ -800,9 +802,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1">
         <v>45773</v>
@@ -817,41 +819,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45773</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>11</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45780</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
       </c>
       <c r="B19" s="1">
         <v>45780</v>
       </c>
-      <c r="C19" s="1">
-        <v>45781</v>
-      </c>
       <c r="D19" t="s">
         <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1">
         <v>45780</v>
@@ -866,9 +870,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
         <v>45780</v>
@@ -883,43 +887,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45781</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>45781</v>
       </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>34</v>
-      </c>
-      <c r="B23" s="1">
-        <v>45787</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>45787</v>
       </c>
-      <c r="C24" s="1"/>
       <c r="D24" t="s">
         <v>35</v>
       </c>
@@ -927,122 +932,118 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45787</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>15</v>
-      </c>
-      <c r="B25" s="1">
-        <v>45794</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
       </c>
       <c r="B26" s="1">
         <v>45794</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C27" s="1">
         <v>45795</v>
       </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>45801</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>45802</v>
       </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="1">
-        <v>45808</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" s="1">
+        <v>45788</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45809</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B31" s="1">
         <v>45814</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B32" s="1">
         <v>45814</v>
       </c>
-      <c r="C30" s="1">
-        <v>45815</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1">
-        <v>45815</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="C32" s="1">
         <v>45815</v>
       </c>
       <c r="D32" t="s">
@@ -1054,10 +1055,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -1068,19 +1069,65 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45815</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45815</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45816</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B37" s="1">
         <v>45816</v>
       </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/competitions-to-import.xlsx
+++ b/competitions-to-import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\projects\ferris-anw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAF6546-1994-4C70-B2C2-74B82A799E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0E5166-1726-468F-AECB-4367966DEA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="1860" windowWidth="22755" windowHeight="12480" tabRatio="435" xr2:uid="{253E5D9B-7B3B-44F8-9EEB-F7D06CBF191B}"/>
+    <workbookView xWindow="2280" yWindow="885" windowWidth="20055" windowHeight="12975" tabRatio="435" xr2:uid="{253E5D9B-7B3B-44F8-9EEB-F7D06CBF191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -36,135 +36,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="51">
   <si>
     <t>Ninjobstacles</t>
   </si>
   <si>
+    <t>gym_name</t>
+  </si>
+  <si>
+    <t>begin_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>league</t>
+  </si>
+  <si>
+    <t>Hit Squad Ninjas</t>
+  </si>
+  <si>
+    <t>Move Sport Ninja Academy</t>
+  </si>
+  <si>
+    <t>Ninja Obstacle Academy</t>
+  </si>
+  <si>
+    <t>Permian Basin Ninja Academy</t>
+  </si>
+  <si>
+    <t>Authentik Movement Training</t>
+  </si>
+  <si>
+    <t>Iron Sports Ninja Warrior</t>
+  </si>
+  <si>
+    <t>is_attendance_planned</t>
+  </si>
+  <si>
+    <t>Ninja Fortress</t>
+  </si>
+  <si>
+    <t>Ultimate Ninjas- Anaheim Hills</t>
+  </si>
+  <si>
+    <t>The Warrior Factory - Hamilton</t>
+  </si>
+  <si>
+    <t>Ninja vs. Ninja #1</t>
+  </si>
+  <si>
+    <t>FINA Season VI</t>
+  </si>
+  <si>
+    <t>Qualifier #1 - Endurance</t>
+  </si>
+  <si>
+    <t>Qualifier #1 - Speed</t>
+  </si>
+  <si>
+    <t>Nebraska Ninja</t>
+  </si>
+  <si>
+    <t>Qualifier #2 - Endurance</t>
+  </si>
+  <si>
+    <t>Warrior Zone Ninja Obstacle Center</t>
+  </si>
+  <si>
+    <t>Wojo Ninja Warrior</t>
+  </si>
+  <si>
+    <t>Four Star Ninja Academy</t>
+  </si>
+  <si>
+    <t>Big Time Ninja</t>
+  </si>
+  <si>
+    <t>Queen City Ninja</t>
+  </si>
+  <si>
+    <t>TA Fitness Weymouth</t>
+  </si>
+  <si>
+    <t>Shinobi Fitness</t>
+  </si>
+  <si>
+    <t>Avant Coeur Ninja</t>
+  </si>
+  <si>
+    <t>UNAA Gym</t>
+  </si>
+  <si>
+    <t>Adrenaline Monkey West Dundee</t>
+  </si>
+  <si>
+    <t>Kid Wonder</t>
+  </si>
+  <si>
+    <t>Qualifier #2 - Speed</t>
+  </si>
+  <si>
+    <t>Fighting Lyons</t>
+  </si>
+  <si>
+    <t>Australian Warrior Fitness</t>
+  </si>
+  <si>
+    <t>Ninja vs. Ninja - Adult</t>
+  </si>
+  <si>
+    <t>Ninja vs. Ninja - Youth</t>
+  </si>
+  <si>
+    <t>Conquer Gym - Peoria</t>
+  </si>
+  <si>
+    <t>Altius Ninja</t>
+  </si>
+  <si>
+    <t>Hybrid Ninja Academy</t>
+  </si>
+  <si>
+    <t>Qualifier #3 - Endurance</t>
+  </si>
+  <si>
+    <t>Qualifier #3 - Speed</t>
+  </si>
+  <si>
+    <t>Rugged Obstacle Courses</t>
+  </si>
+  <si>
+    <t>Obstacle Course Racing School</t>
+  </si>
+  <si>
+    <t>SECTIONAL - Endurance</t>
+  </si>
+  <si>
+    <t>SECTIONAL - Speed</t>
+  </si>
+  <si>
+    <t>Lost Island</t>
+  </si>
+  <si>
     <t>Magic City Gymnastics</t>
   </si>
   <si>
-    <t>gym_name</t>
-  </si>
-  <si>
-    <t>begin_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>league</t>
-  </si>
-  <si>
-    <t>Hit Squad Ninjas</t>
-  </si>
-  <si>
-    <t>Move Sport Ninja Academy</t>
-  </si>
-  <si>
-    <t>Ninja Obstacle Academy</t>
-  </si>
-  <si>
-    <t>UNAA Season 10</t>
-  </si>
-  <si>
-    <t>Republic Warrior Sports</t>
-  </si>
-  <si>
-    <t>Ninja Intensity</t>
-  </si>
-  <si>
-    <t>Next Level Gym</t>
-  </si>
-  <si>
-    <t>Ninja Lair</t>
-  </si>
-  <si>
-    <t>Permian Basin Ninja Academy</t>
-  </si>
-  <si>
-    <t>Authentik Movement Training</t>
-  </si>
-  <si>
-    <t>The Ninja Playground</t>
+    <t>The Barn</t>
   </si>
   <si>
     <t>Vertex Lab Academy</t>
-  </si>
-  <si>
-    <t>Power Pickle</t>
-  </si>
-  <si>
-    <t>605 Ninja</t>
-  </si>
-  <si>
-    <t>Kid Wonder</t>
-  </si>
-  <si>
-    <t>Surge Ninja</t>
-  </si>
-  <si>
-    <t>ORTHDX</t>
-  </si>
-  <si>
-    <t>Iron Sports Ninja Warrior</t>
-  </si>
-  <si>
-    <t>Altitude Movement Gym</t>
-  </si>
-  <si>
-    <t>The Grip</t>
-  </si>
-  <si>
-    <t>NinjaKour</t>
-  </si>
-  <si>
-    <t>The Wolfs Den</t>
-  </si>
-  <si>
-    <t>Rock Solid Warrior - Fuquay</t>
-  </si>
-  <si>
-    <t>is_attendance_planned</t>
-  </si>
-  <si>
-    <t>Leap Ninja</t>
-  </si>
-  <si>
-    <t>Conquer Ninja - Fargo</t>
-  </si>
-  <si>
-    <t>Ninja Fortress</t>
-  </si>
-  <si>
-    <t>Bodies In Motion</t>
-  </si>
-  <si>
-    <t>Regional Qualifier</t>
-  </si>
-  <si>
-    <t>Conquer Gym - Blaine</t>
-  </si>
-  <si>
-    <t>305 Ninja Academy</t>
-  </si>
-  <si>
-    <t>Paragon Performance Sports</t>
-  </si>
-  <si>
-    <t>Fortified Fitness</t>
-  </si>
-  <si>
-    <t>Free Spirit</t>
-  </si>
-  <si>
-    <t>USA Ninja Challenge - Marlborough</t>
-  </si>
-  <si>
-    <t>The Barn</t>
   </si>
 </sst>
 </file>
@@ -537,593 +561,1863 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F8379-6E50-4A95-83D0-2F53C6ED70A3}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
-        <v>45612</v>
+        <v>45598</v>
       </c>
       <c r="C2" s="1">
-        <v>45613</v>
+        <v>45599</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
-        <v>45738</v>
+        <v>45598</v>
       </c>
       <c r="C3" s="1">
-        <v>45739</v>
+        <v>45599</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
-        <v>45738</v>
+        <v>45598</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
-        <v>45745</v>
+        <v>45598</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
-        <v>45752</v>
-      </c>
+        <v>45598</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
-        <v>45752</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45753</v>
-      </c>
+        <v>45599</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>45758</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45759</v>
-      </c>
+        <v>45613</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>45759</v>
+        <v>45619</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>45759</v>
-      </c>
+        <v>45619</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1">
-        <v>45759</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45760</v>
+        <v>45626</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1">
-        <v>45766</v>
-      </c>
+        <v>45627</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>45766</v>
+        <v>45633</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45634</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1">
-        <v>45766</v>
+        <v>45633</v>
       </c>
       <c r="C14" s="1">
-        <v>45767</v>
+        <v>45634</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1">
-        <v>45772</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45773</v>
-      </c>
+        <v>45633</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
-        <v>45773</v>
-      </c>
+        <v>45633</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1">
-        <v>45773</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45774</v>
-      </c>
+        <v>45640</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1">
-        <v>45773</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45774</v>
-      </c>
+        <v>45640</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45641</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45654</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45654</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45660</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45660</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45661</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1">
-        <v>45780</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45780</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45781</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45780</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45781</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B25" s="1">
+        <v>45661</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45662</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45661</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45662</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45661</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45661</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45662</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
-        <v>45780</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45781</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1">
-        <v>45781</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="1">
-        <v>45787</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1">
-        <v>45787</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1">
-        <v>45794</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1">
-        <v>45794</v>
-      </c>
-      <c r="C27" s="1">
-        <v>45795</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1">
-        <v>45801</v>
-      </c>
-      <c r="C28" s="1">
-        <v>45802</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45669</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45669</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="1">
-        <v>45788</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="1">
-        <v>45809</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1">
-        <v>45814</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
       <c r="B32" s="1">
-        <v>45814</v>
+        <v>45668</v>
       </c>
       <c r="C32" s="1">
-        <v>45815</v>
+        <v>45669</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1">
-        <v>45815</v>
+        <v>45668</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45669</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1">
-        <v>45815</v>
-      </c>
+        <v>45668</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1">
-        <v>45815</v>
-      </c>
-      <c r="C35" s="1">
-        <v>45816</v>
-      </c>
+        <v>45668</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1">
-        <v>45816</v>
+        <v>45668</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45669</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45669</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45669</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45675</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45676</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45681</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45682</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45681</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45682</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45682</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45682</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45683</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45683</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45683</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45689</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45690</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45689</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45690</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45689</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45690</v>
+      </c>
+      <c r="D50" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="1">
-        <v>45816</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45689</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45690</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45696</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45696</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45697</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45697</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>35</v>
       </c>
-      <c r="E37" t="s">
+      <c r="B56" s="1">
+        <v>45703</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45704</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45703</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45704</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45703</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45703</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45704</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45703</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45703</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45704</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45711</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45711</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45711</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45711</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45711</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45711</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45711</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>10</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45717</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45717</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45724</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45725</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45731</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45739</v>
+      </c>
+      <c r="D75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45739</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45746</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45746</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45760</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45760</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45760</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45760</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45773</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45773</v>
+      </c>
+      <c r="D89" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45781</v>
+      </c>
+      <c r="D92" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45780</v>
+      </c>
+      <c r="D93" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45781</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45781</v>
+      </c>
+      <c r="D95" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45787</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45788</v>
+      </c>
+      <c r="D96" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45787</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45788</v>
+      </c>
+      <c r="D97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C98" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D98" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C99" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D99" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C100" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D100" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C101" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D101" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C102" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D102" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C103" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45794</v>
+      </c>
+      <c r="D104" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C105" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D105" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C106" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D106" t="s">
+        <v>45</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D107" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45801</v>
+      </c>
+      <c r="C108" s="1">
+        <v>45802</v>
+      </c>
+      <c r="D108" t="s">
+        <v>46</v>
+      </c>
+      <c r="E108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45801</v>
+      </c>
+      <c r="C109" s="1">
+        <v>45802</v>
+      </c>
+      <c r="D109" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45801</v>
+      </c>
+      <c r="D110" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45801</v>
+      </c>
+      <c r="D111" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45801</v>
+      </c>
+      <c r="D112" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45802</v>
+      </c>
+      <c r="D113" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45802</v>
+      </c>
+      <c r="D114" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45802</v>
+      </c>
+      <c r="D115" t="s">
+        <v>46</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45808</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45809</v>
+      </c>
+      <c r="D116" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45808</v>
+      </c>
+      <c r="C117" s="1">
+        <v>45809</v>
+      </c>
+      <c r="D117" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/competitions-to-import.xlsx
+++ b/competitions-to-import.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\projects\ferris-anw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E47C69-6E10-48B6-A03A-3C1480DE5DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ED43ED-0265-43DE-BD2A-805E42A03EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="435" xr2:uid="{253E5D9B-7B3B-44F8-9EEB-F7D06CBF191B}"/>
+    <workbookView xWindow="2505" yWindow="0" windowWidth="20535" windowHeight="15585" tabRatio="435" xr2:uid="{253E5D9B-7B3B-44F8-9EEB-F7D06CBF191B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="91">
   <si>
     <t>gym_name</t>
   </si>
@@ -62,52 +62,253 @@
     <t>is_attendance_planned</t>
   </si>
   <si>
+    <t>Ninja Lair</t>
+  </si>
+  <si>
+    <t>Hit Squad Ninjas</t>
+  </si>
+  <si>
+    <t>Ninjobstacles</t>
+  </si>
+  <si>
     <t>UNAA Gym</t>
   </si>
   <si>
+    <t>Lost Island</t>
+  </si>
+  <si>
     <t>Altius Ninja</t>
   </si>
   <si>
-    <t>Lost Island</t>
-  </si>
-  <si>
-    <t>Ninja Lair</t>
+    <t>Magic City Gymnastics</t>
+  </si>
+  <si>
+    <t>Nebraska Ninja</t>
+  </si>
+  <si>
+    <t>Authentik Movement Training</t>
+  </si>
+  <si>
+    <t>The Barn</t>
+  </si>
+  <si>
+    <t>Kid Wonder</t>
+  </si>
+  <si>
+    <t>Vertex Lab Academy</t>
+  </si>
+  <si>
+    <t>Four Star Ninja Academy</t>
+  </si>
+  <si>
+    <t>Big Time Ninja</t>
+  </si>
+  <si>
+    <t>Ultimate Ninjas- Anaheim Hills</t>
+  </si>
+  <si>
+    <t>Avant Coeur Ninja</t>
+  </si>
+  <si>
+    <t>Tri County</t>
+  </si>
+  <si>
+    <t>Permian Basin Ninja Academy</t>
+  </si>
+  <si>
+    <t>Ninja Obstacle Academy</t>
+  </si>
+  <si>
+    <t>Warrior Zone Ninja Obstacle Center</t>
+  </si>
+  <si>
+    <t>Ninja Fortress</t>
+  </si>
+  <si>
+    <t>Camp Rhino</t>
+  </si>
+  <si>
+    <t>Area Qualifier</t>
   </si>
   <si>
     <t>UNAA Season 10</t>
   </si>
   <si>
+    <t>The Ninja Gym</t>
+  </si>
+  <si>
+    <t>Sumner Ninja</t>
+  </si>
+  <si>
     <t>Republic Warrior Sports</t>
   </si>
   <si>
+    <t>Ninja Intensity</t>
+  </si>
+  <si>
+    <t>Next Level Gym</t>
+  </si>
+  <si>
     <t>The Ninja Playground</t>
   </si>
   <si>
+    <t>District Christian Academy</t>
+  </si>
+  <si>
+    <t>Paragon Performance Sports</t>
+  </si>
+  <si>
     <t>Power Pickle</t>
   </si>
   <si>
+    <t>605 Ninja</t>
+  </si>
+  <si>
+    <t>Nova Ninja Sterling</t>
+  </si>
+  <si>
     <t>Athletes in Motion</t>
   </si>
   <si>
     <t>Fortified Fitness</t>
   </si>
   <si>
+    <t>Airbenders</t>
+  </si>
+  <si>
+    <t>Warrior Tech - Raleigh</t>
+  </si>
+  <si>
+    <t>Surge Ninja</t>
+  </si>
+  <si>
+    <t>ORTHDX</t>
+  </si>
+  <si>
+    <t>Super Ninja Zone</t>
+  </si>
+  <si>
+    <t>Conquer Gym - Gilbert</t>
+  </si>
+  <si>
     <t>WISC Ninja Warrior</t>
   </si>
   <si>
+    <t>Altitude Movement Gym</t>
+  </si>
+  <si>
+    <t>The Grip</t>
+  </si>
+  <si>
+    <t>Camp Ninja Warrior</t>
+  </si>
+  <si>
+    <t>Free Spirit</t>
+  </si>
+  <si>
+    <t>Ultimate Ninjas - Elmhurst</t>
+  </si>
+  <si>
+    <t>NinjaKour</t>
+  </si>
+  <si>
+    <t>World Class Dragons</t>
+  </si>
+  <si>
+    <t>Conquer Ninja Gyms - Woodbury</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge-Manchester</t>
+  </si>
+  <si>
+    <t>Ninja Hub</t>
+  </si>
+  <si>
+    <t>Impact Ninja Gym</t>
+  </si>
+  <si>
+    <t>Flow Vault</t>
+  </si>
+  <si>
     <t>305 Ninja Academy</t>
   </si>
   <si>
     <t>Leap Ninja</t>
   </si>
   <si>
+    <t>USA Ninja Challenge - Greenbrier</t>
+  </si>
+  <si>
+    <t>Warrior Challenge Arena</t>
+  </si>
+  <si>
+    <t>Ninjas United</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge - Marlborough</t>
+  </si>
+  <si>
+    <t>Rock Solid Warrior - Apex</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge - Rochester</t>
+  </si>
+  <si>
+    <t>Ninja Force</t>
+  </si>
+  <si>
     <t>Strong Grip</t>
   </si>
   <si>
+    <t>The Jungle Movement Academy</t>
+  </si>
+  <si>
+    <t>Bodies In Motion</t>
+  </si>
+  <si>
+    <t>Conquer Ninja - Fargo</t>
+  </si>
+  <si>
     <t>The Wolfs Den</t>
   </si>
   <si>
-    <t>WNA Games</t>
+    <t>Conquer Gym - Chandler</t>
+  </si>
+  <si>
+    <t>716 Ninja Academy</t>
+  </si>
+  <si>
+    <t>Ninja Quest Adventures</t>
+  </si>
+  <si>
+    <t>Rapt Ninja Academy</t>
+  </si>
+  <si>
+    <t>Sumter Ninja Warrior</t>
+  </si>
+  <si>
+    <t>Ninja Republic</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge - Bristol</t>
+  </si>
+  <si>
+    <t>Get Over It Fitness</t>
+  </si>
+  <si>
+    <t>Sterling Gym</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge - Katy</t>
+  </si>
+  <si>
+    <t>Rock Solid Warrior - Fuquay</t>
+  </si>
+  <si>
+    <t>Tumble Time Gymnastics</t>
+  </si>
+  <si>
+    <t>First State Gymnatics</t>
   </si>
 </sst>
 </file>
@@ -479,21 +680,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F8379-6E50-4A95-83D0-2F53C6ED70A3}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0600ECD8-3CCC-4CB6-9CB7-CACA674A5C73}">
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -518,254 +714,1675 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
-        <v>45717</v>
+        <v>45605</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1">
-        <v>45717</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45725</v>
+        <v>45612</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>45718</v>
+        <v>45612</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1">
-        <v>45718</v>
+        <v>45612</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1">
-        <v>45723</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45725</v>
+        <v>45612</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
-        <v>45717</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45725</v>
+        <v>45619</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1">
-        <v>45724</v>
+        <v>45619</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45620</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1">
-        <v>45724</v>
+        <v>45619</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>45724</v>
+        <v>45626</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
-        <v>45724</v>
+        <v>45632</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45633</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1">
-        <v>45725</v>
+        <v>45633</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>45717</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45725</v>
+        <v>45633</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>45717</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45725</v>
+        <v>45633</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>45717</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45725</v>
+        <v>45633</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45634</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45634</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45640</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45641</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45660</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45660</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45661</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45667</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45668</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45669</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45669</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45675</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45675</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45676</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45681</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45682</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45682</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45682</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45682</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45682</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45577</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45577</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45577</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45578</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45584</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45584</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45584</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45591</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45591</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45591</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B46" s="1">
+        <v>45592</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45592</v>
+      </c>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45597</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45598</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45599</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45598</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45599</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45605</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45606</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45605</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45605</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45605</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45605</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45606</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45605</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45606</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45683</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45696</v>
+      </c>
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45696</v>
+      </c>
+      <c r="D66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45696</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45696</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45697</v>
+      </c>
+      <c r="D68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45696</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45697</v>
+      </c>
+      <c r="D69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45703</v>
+      </c>
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45703</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45703</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45704</v>
+      </c>
+      <c r="D72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45703</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45704</v>
+      </c>
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45704</v>
+      </c>
+      <c r="D74" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45704</v>
+      </c>
+      <c r="D75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45704</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45705</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45710</v>
+      </c>
+      <c r="D78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45710</v>
+      </c>
+      <c r="D79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45710</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45711</v>
+      </c>
+      <c r="D81" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45711</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45711</v>
+      </c>
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45711</v>
+      </c>
+      <c r="D84" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="1">
         <v>45717</v>
       </c>
-      <c r="C16" s="1">
-        <v>45725</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45731</v>
+      </c>
+      <c r="D86" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45731</v>
+      </c>
+      <c r="D87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45731</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45731</v>
+      </c>
+      <c r="D89" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45732</v>
+      </c>
+      <c r="D90" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45738</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45738</v>
+      </c>
+      <c r="D92" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45738</v>
+      </c>
+      <c r="D93" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45738</v>
+      </c>
+      <c r="D94" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>23</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1">
-        <v>45717</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45725</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
+      <c r="B95" s="1">
+        <v>45738</v>
+      </c>
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45738</v>
+      </c>
+      <c r="D96" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45738</v>
+      </c>
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45745</v>
+      </c>
+      <c r="D98" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45745</v>
+      </c>
+      <c r="D99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45745</v>
+      </c>
+      <c r="D100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45745</v>
+      </c>
+      <c r="D101" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C102" s="1">
+        <v>45746</v>
+      </c>
+      <c r="D102" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C103" s="1">
+        <v>45746</v>
+      </c>
+      <c r="D103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45746</v>
+      </c>
+      <c r="D104" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45746</v>
+      </c>
+      <c r="D105" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45752</v>
+      </c>
+      <c r="D106" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>88</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C107" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D107" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>60</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C108" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D108" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45759</v>
+      </c>
+      <c r="D109" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45766</v>
+      </c>
+      <c r="D110" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45794</v>
+      </c>
+      <c r="D111" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45814</v>
+      </c>
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>90</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45815</v>
+      </c>
+      <c r="D113" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/competitions-to-import.xlsx
+++ b/competitions-to-import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\projects\ferris-anw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ED43ED-0265-43DE-BD2A-805E42A03EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDB7A9A-8439-4B65-92A2-9CDE8E619F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="0" windowWidth="20535" windowHeight="15585" tabRatio="435" xr2:uid="{253E5D9B-7B3B-44F8-9EEB-F7D06CBF191B}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="435" xr2:uid="{253E5D9B-7B3B-44F8-9EEB-F7D06CBF191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="75">
   <si>
     <t>gym_name</t>
   </si>
@@ -71,6 +71,51 @@
     <t>Ninjobstacles</t>
   </si>
   <si>
+    <t>Magic City Gymnastics</t>
+  </si>
+  <si>
+    <t>Authentik Movement Training</t>
+  </si>
+  <si>
+    <t>The Barn</t>
+  </si>
+  <si>
+    <t>Kid Wonder</t>
+  </si>
+  <si>
+    <t>Vertex Lab Academy</t>
+  </si>
+  <si>
+    <t>Ultimate Ninjas- Anaheim Hills</t>
+  </si>
+  <si>
+    <t>Tri County</t>
+  </si>
+  <si>
+    <t>Permian Basin Ninja Academy</t>
+  </si>
+  <si>
+    <t>Ninja Obstacle Academy</t>
+  </si>
+  <si>
+    <t>Ninja Fortress</t>
+  </si>
+  <si>
+    <t>Fortified Fitness</t>
+  </si>
+  <si>
+    <t>is_registered</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Conquer Gym - Blaine</t>
+  </si>
+  <si>
     <t>UNAA Gym</t>
   </si>
   <si>
@@ -80,22 +125,46 @@
     <t>Altius Ninja</t>
   </si>
   <si>
-    <t>Magic City Gymnastics</t>
+    <t>Queen City Ninja</t>
+  </si>
+  <si>
+    <t>Qualifier #1 - Speed</t>
+  </si>
+  <si>
+    <t>FINA Season VI</t>
+  </si>
+  <si>
+    <t>Qualifier #1 - Endurance</t>
+  </si>
+  <si>
+    <t>Rugged Obstacle Courses</t>
   </si>
   <si>
     <t>Nebraska Ninja</t>
   </si>
   <si>
-    <t>Authentik Movement Training</t>
-  </si>
-  <si>
-    <t>The Barn</t>
-  </si>
-  <si>
-    <t>Kid Wonder</t>
-  </si>
-  <si>
-    <t>Vertex Lab Academy</t>
+    <t>WA Ninja Games</t>
+  </si>
+  <si>
+    <t>Games - Speed</t>
+  </si>
+  <si>
+    <t>Ninja Grand Prix</t>
+  </si>
+  <si>
+    <t>The Warrior Factory - Hamilton</t>
+  </si>
+  <si>
+    <t>Ninja vs. Ninja #1</t>
+  </si>
+  <si>
+    <t>Qualifier #2 - Endurance</t>
+  </si>
+  <si>
+    <t>Qualifier #2 - Speed</t>
+  </si>
+  <si>
+    <t>Wojo Ninja Warrior</t>
   </si>
   <si>
     <t>Four Star Ninja Academy</t>
@@ -104,211 +173,94 @@
     <t>Big Time Ninja</t>
   </si>
   <si>
-    <t>Ultimate Ninjas- Anaheim Hills</t>
+    <t>Fundraiser - Speed</t>
+  </si>
+  <si>
+    <t>Rise Up Ninja</t>
+  </si>
+  <si>
+    <t>Shinobi Fitness</t>
   </si>
   <si>
     <t>Avant Coeur Ninja</t>
   </si>
   <si>
-    <t>Tri County</t>
-  </si>
-  <si>
-    <t>Permian Basin Ninja Academy</t>
-  </si>
-  <si>
-    <t>Ninja Obstacle Academy</t>
+    <t>Adrenaline Monkey West Dundee</t>
+  </si>
+  <si>
+    <t>Ninja Nation - Murphy</t>
+  </si>
+  <si>
+    <t>Fighting Lyons</t>
+  </si>
+  <si>
+    <t>Australian Warrior Fitness</t>
+  </si>
+  <si>
+    <t>Ninja vs. Ninja - Youth</t>
+  </si>
+  <si>
+    <t>Ninja vs. Ninja - Adult</t>
   </si>
   <si>
     <t>Warrior Zone Ninja Obstacle Center</t>
   </si>
   <si>
-    <t>Ninja Fortress</t>
+    <t>TA Fitness Weymouth</t>
+  </si>
+  <si>
+    <t>Conquer Gym - Peoria</t>
+  </si>
+  <si>
+    <t>Qualifier #1 = - Speed</t>
+  </si>
+  <si>
+    <t>The Rock Ninja Warrior Academy</t>
+  </si>
+  <si>
+    <t>Qualifier - Speed #2</t>
+  </si>
+  <si>
+    <t>Qualifier #3 - Endurance(13U, YA, Am, Ma, TF)</t>
+  </si>
+  <si>
+    <t>Qualifier #2 - Speed (13U, YA, Am., Mas., TF)</t>
+  </si>
+  <si>
+    <t>Qualifier #3 - Endurance (7U, 9U, 11U)</t>
+  </si>
+  <si>
+    <t>Qualifier #2 - Speed (7U, 9U, 11U)</t>
+  </si>
+  <si>
+    <t>716 Ninja Academy</t>
+  </si>
+  <si>
+    <t>Qualifier #3 - Endurance</t>
   </si>
   <si>
     <t>Camp Rhino</t>
   </si>
   <si>
-    <t>Area Qualifier</t>
-  </si>
-  <si>
-    <t>UNAA Season 10</t>
-  </si>
-  <si>
-    <t>The Ninja Gym</t>
-  </si>
-  <si>
-    <t>Sumner Ninja</t>
-  </si>
-  <si>
-    <t>Republic Warrior Sports</t>
-  </si>
-  <si>
-    <t>Ninja Intensity</t>
-  </si>
-  <si>
-    <t>Next Level Gym</t>
-  </si>
-  <si>
-    <t>The Ninja Playground</t>
-  </si>
-  <si>
-    <t>District Christian Academy</t>
-  </si>
-  <si>
-    <t>Paragon Performance Sports</t>
-  </si>
-  <si>
-    <t>Power Pickle</t>
-  </si>
-  <si>
-    <t>605 Ninja</t>
-  </si>
-  <si>
-    <t>Nova Ninja Sterling</t>
-  </si>
-  <si>
-    <t>Athletes in Motion</t>
-  </si>
-  <si>
-    <t>Fortified Fitness</t>
-  </si>
-  <si>
-    <t>Airbenders</t>
-  </si>
-  <si>
-    <t>Warrior Tech - Raleigh</t>
-  </si>
-  <si>
-    <t>Surge Ninja</t>
-  </si>
-  <si>
-    <t>ORTHDX</t>
-  </si>
-  <si>
-    <t>Super Ninja Zone</t>
-  </si>
-  <si>
-    <t>Conquer Gym - Gilbert</t>
-  </si>
-  <si>
-    <t>WISC Ninja Warrior</t>
-  </si>
-  <si>
-    <t>Altitude Movement Gym</t>
-  </si>
-  <si>
-    <t>The Grip</t>
-  </si>
-  <si>
-    <t>Camp Ninja Warrior</t>
-  </si>
-  <si>
-    <t>Free Spirit</t>
-  </si>
-  <si>
-    <t>Ultimate Ninjas - Elmhurst</t>
-  </si>
-  <si>
-    <t>NinjaKour</t>
-  </si>
-  <si>
-    <t>World Class Dragons</t>
-  </si>
-  <si>
-    <t>Conquer Ninja Gyms - Woodbury</t>
-  </si>
-  <si>
-    <t>USA Ninja Challenge-Manchester</t>
-  </si>
-  <si>
-    <t>Ninja Hub</t>
-  </si>
-  <si>
-    <t>Impact Ninja Gym</t>
-  </si>
-  <si>
-    <t>Flow Vault</t>
-  </si>
-  <si>
-    <t>305 Ninja Academy</t>
-  </si>
-  <si>
-    <t>Leap Ninja</t>
-  </si>
-  <si>
-    <t>USA Ninja Challenge - Greenbrier</t>
-  </si>
-  <si>
-    <t>Warrior Challenge Arena</t>
-  </si>
-  <si>
-    <t>Ninjas United</t>
-  </si>
-  <si>
-    <t>USA Ninja Challenge - Marlborough</t>
-  </si>
-  <si>
-    <t>Rock Solid Warrior - Apex</t>
-  </si>
-  <si>
-    <t>USA Ninja Challenge - Rochester</t>
-  </si>
-  <si>
-    <t>Ninja Force</t>
-  </si>
-  <si>
-    <t>Strong Grip</t>
-  </si>
-  <si>
-    <t>The Jungle Movement Academy</t>
-  </si>
-  <si>
-    <t>Bodies In Motion</t>
-  </si>
-  <si>
-    <t>Conquer Ninja - Fargo</t>
-  </si>
-  <si>
-    <t>The Wolfs Den</t>
-  </si>
-  <si>
-    <t>Conquer Gym - Chandler</t>
-  </si>
-  <si>
-    <t>716 Ninja Academy</t>
-  </si>
-  <si>
-    <t>Ninja Quest Adventures</t>
-  </si>
-  <si>
-    <t>Rapt Ninja Academy</t>
-  </si>
-  <si>
-    <t>Sumter Ninja Warrior</t>
-  </si>
-  <si>
-    <t>Ninja Republic</t>
-  </si>
-  <si>
-    <t>USA Ninja Challenge - Bristol</t>
-  </si>
-  <si>
-    <t>Get Over It Fitness</t>
-  </si>
-  <si>
-    <t>Sterling Gym</t>
-  </si>
-  <si>
-    <t>USA Ninja Challenge - Katy</t>
-  </si>
-  <si>
-    <t>Rock Solid Warrior - Fuquay</t>
-  </si>
-  <si>
-    <t>Tumble Time Gymnastics</t>
-  </si>
-  <si>
-    <t>First State Gymnatics</t>
+    <t>Qualifier #3 - Speed</t>
+  </si>
+  <si>
+    <t>SECTIONAL - Speed</t>
+  </si>
+  <si>
+    <t>SECTIONAL - Endurance</t>
+  </si>
+  <si>
+    <t>Obstacle Course Racing School</t>
+  </si>
+  <si>
+    <t>SECTIONAL - Speed Youth (7U</t>
+  </si>
+  <si>
+    <t>SECTIONAL - Endurance Youth (7U</t>
+  </si>
+  <si>
+    <t>Maybe</t>
   </si>
 </sst>
 </file>
@@ -681,18 +633,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0600ECD8-3CCC-4CB6-9CB7-CACA674A5C73}">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,13 +669,19 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
-        <v>45605</v>
+        <v>45598</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45599</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -726,100 +690,106 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
-        <v>45612</v>
+        <v>45598</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45599</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
-        <v>45612</v>
-      </c>
-      <c r="D4" t="s">
+        <v>45598</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>45612</v>
-      </c>
-      <c r="D5" t="s">
+        <v>45598</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>45612</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
+        <v>45598</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
-        <v>45619</v>
-      </c>
-      <c r="D7" t="s">
+        <v>45599</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1">
-        <v>45619</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45620</v>
-      </c>
+        <v>45613</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>45619</v>
       </c>
+      <c r="C9" s="1"/>
       <c r="D9" t="s">
         <v>30</v>
       </c>
@@ -827,44 +797,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1">
+        <v>45619</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
         <v>45626</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45632</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45633</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>45633</v>
-      </c>
+        <v>45627</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>30</v>
       </c>
@@ -872,13 +842,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>45633</v>
       </c>
+      <c r="C13" s="1">
+        <v>45634</v>
+      </c>
       <c r="D13" t="s">
         <v>30</v>
       </c>
@@ -886,496 +859,507 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
         <v>45633</v>
       </c>
+      <c r="C14" s="1">
+        <v>45634</v>
+      </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>45633</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>45634</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
+        <v>45633</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1">
-        <v>45634</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
+        <v>45640</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45641</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
         <v>45640</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1">
+        <v>45640</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
         <v>45641</v>
       </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45654</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45654</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B23" s="1">
         <v>45660</v>
       </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="C23" s="1"/>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
         <v>45660</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1">
         <v>45661</v>
       </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="1">
-        <v>45667</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45661</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45661</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45661</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45661</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45662</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45662</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45662</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="1">
         <v>45668</v>
       </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="C33" s="1">
+        <v>45669</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1">
         <v>45668</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C34" s="1">
         <v>45669</v>
       </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45668</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C38" s="1">
         <v>45669</v>
       </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45669</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45669</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1">
         <v>45675</v>
       </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="C41" s="1">
+        <v>45676</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1">
         <v>45675</v>
       </c>
-      <c r="C26" s="1">
-        <v>45676</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="1">
-        <v>45681</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="1">
         <v>45682</v>
       </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="1">
         <v>45682</v>
       </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="1">
-        <v>45682</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45683</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="1">
-        <v>45682</v>
-      </c>
-      <c r="D30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="1">
-        <v>45682</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="1">
-        <v>45556</v>
-      </c>
-      <c r="D32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>45570</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>45570</v>
-      </c>
-      <c r="D34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="1">
-        <v>45577</v>
-      </c>
-      <c r="D35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1">
-        <v>45577</v>
-      </c>
-      <c r="D36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1">
-        <v>45577</v>
-      </c>
-      <c r="C37" s="1">
-        <v>45578</v>
-      </c>
-      <c r="D37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45584</v>
-      </c>
-      <c r="D38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="1">
-        <v>45584</v>
-      </c>
-      <c r="C39" s="1">
-        <v>45585</v>
-      </c>
-      <c r="D39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="1">
-        <v>45584</v>
-      </c>
-      <c r="C40" s="1">
-        <v>45585</v>
-      </c>
-      <c r="D40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="1">
-        <v>45584</v>
-      </c>
-      <c r="C41" s="1">
-        <v>45585</v>
-      </c>
-      <c r="D41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="1">
-        <v>45585</v>
-      </c>
-      <c r="D42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="1">
-        <v>45591</v>
-      </c>
-      <c r="D43" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="1">
-        <v>45591</v>
-      </c>
-      <c r="D44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="1">
-        <v>45591</v>
-      </c>
-      <c r="D45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
       <c r="B46" s="1">
-        <v>45592</v>
+        <v>45683</v>
       </c>
       <c r="D46" t="s">
         <v>30</v>
@@ -1384,29 +1368,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B47" s="1">
-        <v>45592</v>
-      </c>
+        <v>45683</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
-        <v>45597</v>
+        <v>45689</v>
       </c>
       <c r="C48" s="1">
-        <v>45598</v>
+        <v>45690</v>
       </c>
       <c r="D48" t="s">
         <v>30</v>
@@ -1417,13 +1402,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>45598</v>
+        <v>45689</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45690</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E49" t="s">
         <v>31</v>
@@ -1431,10 +1419,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1">
-        <v>45598</v>
+        <v>45689</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45690</v>
       </c>
       <c r="D50" t="s">
         <v>30</v>
@@ -1445,13 +1436,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>45598</v>
+        <v>45689</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45690</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
         <v>31</v>
@@ -1459,13 +1453,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B52" s="1">
-        <v>45598</v>
+        <v>45689</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45690</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
         <v>31</v>
@@ -1473,16 +1470,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B53" s="1">
-        <v>45598</v>
+        <v>45689</v>
       </c>
       <c r="C53" s="1">
-        <v>45599</v>
+        <v>45690</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E53" t="s">
         <v>31</v>
@@ -1490,13 +1487,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1">
-        <v>45598</v>
+        <v>45689</v>
       </c>
       <c r="C54" s="1">
-        <v>45599</v>
+        <v>45690</v>
       </c>
       <c r="D54" t="s">
         <v>30</v>
@@ -1507,16 +1504,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1">
-        <v>45605</v>
+        <v>45689</v>
       </c>
       <c r="C55" s="1">
-        <v>45606</v>
+        <v>45690</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
         <v>31</v>
@@ -1524,10 +1521,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B56" s="1">
-        <v>45605</v>
+        <v>45696</v>
       </c>
       <c r="D56" t="s">
         <v>30</v>
@@ -1538,13 +1535,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B57" s="1">
-        <v>45605</v>
+        <v>45696</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
         <v>31</v>
@@ -1552,10 +1549,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1">
-        <v>45605</v>
+        <v>45696</v>
       </c>
       <c r="D58" t="s">
         <v>30</v>
@@ -1566,16 +1563,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B59" s="1">
-        <v>45605</v>
-      </c>
-      <c r="C59" s="1">
-        <v>45606</v>
+        <v>45696</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
         <v>31</v>
@@ -1583,13 +1577,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1">
-        <v>45605</v>
-      </c>
-      <c r="C60" s="1">
-        <v>45606</v>
+        <v>45697</v>
       </c>
       <c r="D60" t="s">
         <v>30</v>
@@ -1600,13 +1591,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B61" s="1">
-        <v>45683</v>
+        <v>45697</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
         <v>31</v>
@@ -1614,10 +1605,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B62" s="1">
-        <v>45689</v>
+        <v>45703</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45704</v>
       </c>
       <c r="D62" t="s">
         <v>30</v>
@@ -1628,13 +1622,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B63" s="1">
-        <v>45689</v>
+        <v>45703</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45704</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
         <v>31</v>
@@ -1642,13 +1639,14 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B64" s="1">
-        <v>45689</v>
-      </c>
+        <v>45703</v>
+      </c>
+      <c r="C64" s="1"/>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E64" t="s">
         <v>31</v>
@@ -1656,13 +1654,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B65" s="1">
-        <v>45696</v>
+        <v>45703</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45704</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
         <v>31</v>
@@ -1670,13 +1671,14 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B66" s="1">
-        <v>45696</v>
-      </c>
+        <v>45703</v>
+      </c>
+      <c r="C66" s="1"/>
       <c r="D66" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E66" t="s">
         <v>31</v>
@@ -1684,13 +1686,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B67" s="1">
-        <v>45696</v>
+        <v>45703</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E67" t="s">
         <v>31</v>
@@ -1698,16 +1700,14 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B68" s="1">
-        <v>45696</v>
-      </c>
-      <c r="C68" s="1">
-        <v>45697</v>
-      </c>
+        <v>45704</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E68" t="s">
         <v>31</v>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B69" s="1">
-        <v>45696</v>
+        <v>45710</v>
       </c>
       <c r="C69" s="1">
-        <v>45697</v>
+        <v>45711</v>
       </c>
       <c r="D69" t="s">
         <v>30</v>
@@ -1732,13 +1732,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B70" s="1">
-        <v>45703</v>
+        <v>45710</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45711</v>
       </c>
       <c r="D70" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E70" t="s">
         <v>31</v>
@@ -1746,10 +1749,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B71" s="1">
-        <v>45703</v>
+        <v>45710</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45711</v>
       </c>
       <c r="D71" t="s">
         <v>30</v>
@@ -1760,16 +1766,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B72" s="1">
-        <v>45703</v>
+        <v>45710</v>
       </c>
       <c r="C72" s="1">
-        <v>45704</v>
+        <v>45711</v>
       </c>
       <c r="D72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E72" t="s">
         <v>31</v>
@@ -1777,13 +1783,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B73" s="1">
-        <v>45703</v>
+        <v>45710</v>
       </c>
       <c r="C73" s="1">
-        <v>45704</v>
+        <v>45711</v>
       </c>
       <c r="D73" t="s">
         <v>30</v>
@@ -1794,13 +1800,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B74" s="1">
-        <v>45704</v>
+        <v>45710</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45711</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E74" t="s">
         <v>31</v>
@@ -1808,13 +1817,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B75" s="1">
-        <v>45704</v>
+        <v>45710</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45711</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E75" t="s">
         <v>31</v>
@@ -1822,13 +1834,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B76" s="1">
-        <v>45704</v>
+        <v>45710</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45711</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E76" t="s">
         <v>31</v>
@@ -1836,10 +1851,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B77" s="1">
-        <v>45705</v>
+        <v>45710</v>
       </c>
       <c r="D77" t="s">
         <v>30</v>
@@ -1850,13 +1865,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B78" s="1">
         <v>45710</v>
       </c>
+      <c r="C78" s="1">
+        <v>45711</v>
+      </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E78" t="s">
         <v>31</v>
@@ -1864,13 +1882,14 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B79" s="1">
-        <v>45710</v>
-      </c>
+        <v>45717</v>
+      </c>
+      <c r="C79" s="1"/>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E79" t="s">
         <v>31</v>
@@ -1878,28 +1897,27 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B80" s="1">
-        <v>45710</v>
-      </c>
+        <v>45717</v>
+      </c>
+      <c r="C80" s="1"/>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E80" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B81" s="1">
-        <v>45710</v>
-      </c>
-      <c r="C81" s="1">
-        <v>45711</v>
-      </c>
+        <v>45724</v>
+      </c>
+      <c r="C81" s="1"/>
       <c r="D81" t="s">
         <v>30</v>
       </c>
@@ -1907,15 +1925,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B82" s="1">
-        <v>45710</v>
-      </c>
-      <c r="C82" s="1">
-        <v>45711</v>
+        <v>45724</v>
       </c>
       <c r="D82" t="s">
         <v>30</v>
@@ -1924,150 +1939,148 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B83" s="1">
-        <v>45710</v>
-      </c>
-      <c r="C83" s="1">
-        <v>45711</v>
+        <v>45725</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E83" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B84" s="1">
-        <v>45710</v>
-      </c>
-      <c r="C84" s="1">
-        <v>45711</v>
+        <v>45725</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B85" s="1">
-        <v>45717</v>
+        <v>45731</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E85" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B86" s="1">
         <v>45731</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E86" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B87" s="1">
         <v>45731</v>
       </c>
+      <c r="C87" s="1"/>
       <c r="D87" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E87" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B88" s="1">
-        <v>45731</v>
+        <v>45732</v>
       </c>
       <c r="D88" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E88" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B89" s="1">
-        <v>45731</v>
+        <v>45732</v>
       </c>
       <c r="D89" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E89" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="B90" s="1">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="C90" s="1">
-        <v>45732</v>
+        <v>45739</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E90" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B91" s="1">
         <v>45738</v>
       </c>
+      <c r="C91" s="1">
+        <v>45739</v>
+      </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E91" t="s">
         <v>31</v>
       </c>
-      <c r="F91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B92" s="1">
-        <v>45738</v>
+        <v>45745</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45746</v>
       </c>
       <c r="D92" t="s">
         <v>30</v>
@@ -2076,68 +2089,74 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B93" s="1">
-        <v>45738</v>
+        <v>45745</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45746</v>
       </c>
       <c r="D93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E93" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B94" s="1">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E94" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B95" s="1">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="D95" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E95" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B96" s="1">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="D96" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E96" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B97" s="1">
-        <v>45738</v>
+        <v>45745</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45747</v>
       </c>
       <c r="D97" t="s">
         <v>30</v>
@@ -2146,54 +2165,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B98" s="1">
         <v>45745</v>
       </c>
+      <c r="C98" s="1">
+        <v>45746</v>
+      </c>
       <c r="D98" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E98" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B99" s="1">
-        <v>45745</v>
-      </c>
+        <v>45746</v>
+      </c>
+      <c r="C99" s="1"/>
       <c r="D99" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E99" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B100" s="1">
-        <v>45745</v>
-      </c>
+        <v>45752</v>
+      </c>
+      <c r="C100" s="1"/>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E100" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B101" s="1">
-        <v>45745</v>
+        <v>45752</v>
+      </c>
+      <c r="C101" s="1">
+        <v>45753</v>
       </c>
       <c r="D101" t="s">
         <v>30</v>
@@ -2202,133 +2229,136 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C102" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D102" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D103" t="s">
+        <v>40</v>
+      </c>
+      <c r="E103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C104" s="1">
+        <v>45760</v>
+      </c>
+      <c r="D104" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C105" s="1">
+        <v>45760</v>
+      </c>
+      <c r="D105" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45759</v>
+      </c>
+      <c r="D106" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45759</v>
+      </c>
+      <c r="D107" t="s">
+        <v>66</v>
+      </c>
+      <c r="E107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>27</v>
       </c>
-      <c r="B102" s="1">
-        <v>45745</v>
-      </c>
-      <c r="C102" s="1">
-        <v>45746</v>
-      </c>
-      <c r="D102" t="s">
-        <v>30</v>
-      </c>
-      <c r="E102" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>86</v>
-      </c>
-      <c r="B103" s="1">
-        <v>45745</v>
-      </c>
-      <c r="C103" s="1">
-        <v>45746</v>
-      </c>
-      <c r="D103" t="s">
-        <v>30</v>
-      </c>
-      <c r="E103" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>52</v>
-      </c>
-      <c r="B104" s="1">
-        <v>45746</v>
-      </c>
-      <c r="D104" t="s">
-        <v>30</v>
-      </c>
-      <c r="E104" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>55</v>
-      </c>
-      <c r="B105" s="1">
-        <v>45746</v>
-      </c>
-      <c r="D105" t="s">
-        <v>30</v>
-      </c>
-      <c r="E105" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>87</v>
-      </c>
-      <c r="B106" s="1">
-        <v>45752</v>
-      </c>
-      <c r="D106" t="s">
-        <v>30</v>
-      </c>
-      <c r="E106" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>88</v>
-      </c>
-      <c r="B107" s="1">
-        <v>45752</v>
-      </c>
-      <c r="C107" s="1">
-        <v>45753</v>
-      </c>
-      <c r="D107" t="s">
-        <v>30</v>
-      </c>
-      <c r="E107" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>60</v>
-      </c>
       <c r="B108" s="1">
-        <v>45752</v>
-      </c>
-      <c r="C108" s="1">
-        <v>45753</v>
+        <v>45759</v>
       </c>
       <c r="D108" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E108" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="B109" s="1">
-        <v>45759</v>
+        <v>45760</v>
       </c>
       <c r="D109" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E109" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B110" s="1">
         <v>45766</v>
@@ -2340,49 +2370,739 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B111" s="1">
+        <v>45766</v>
+      </c>
+      <c r="D111" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45773</v>
+      </c>
+      <c r="D112" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45773</v>
+      </c>
+      <c r="D113" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45773</v>
+      </c>
+      <c r="C114" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45773</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D115" t="s">
+        <v>70</v>
+      </c>
+      <c r="E115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45780</v>
+      </c>
+      <c r="D116" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45780</v>
+      </c>
+      <c r="D117" t="s">
+        <v>32</v>
+      </c>
+      <c r="E117" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45781</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45780</v>
+      </c>
+      <c r="D119" t="s">
+        <v>70</v>
+      </c>
+      <c r="E119" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C120" s="1">
+        <v>45781</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C121" s="1">
+        <v>45781</v>
+      </c>
+      <c r="D121" t="s">
+        <v>70</v>
+      </c>
+      <c r="E121" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>71</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45781</v>
+      </c>
+      <c r="D122" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45781</v>
+      </c>
+      <c r="D123" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>38</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45787</v>
+      </c>
+      <c r="C124" s="1">
+        <v>45788</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>38</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45787</v>
+      </c>
+      <c r="C125" s="1">
+        <v>45788</v>
+      </c>
+      <c r="D125" t="s">
+        <v>70</v>
+      </c>
+      <c r="E125" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45787</v>
+      </c>
+      <c r="C126" s="1">
+        <v>45788</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45787</v>
+      </c>
+      <c r="C127" s="1">
+        <v>45788</v>
+      </c>
+      <c r="D127" t="s">
+        <v>70</v>
+      </c>
+      <c r="E127" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" t="s">
+        <v>74</v>
+      </c>
+      <c r="G127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45787</v>
+      </c>
+      <c r="C128" s="1">
+        <v>45788</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45787</v>
+      </c>
+      <c r="C129" s="1">
+        <v>45788</v>
+      </c>
+      <c r="D129" t="s">
+        <v>70</v>
+      </c>
+      <c r="E129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45788</v>
+      </c>
+      <c r="D130" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45788</v>
+      </c>
+      <c r="D131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>29</v>
+      </c>
+      <c r="B132" s="1">
         <v>45794</v>
       </c>
-      <c r="D111" t="s">
-        <v>30</v>
-      </c>
-      <c r="E111" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>44</v>
-      </c>
-      <c r="B112" s="1">
-        <v>45814</v>
-      </c>
-      <c r="D112" t="s">
-        <v>30</v>
-      </c>
-      <c r="E112" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>90</v>
-      </c>
-      <c r="B113" s="1">
-        <v>45815</v>
-      </c>
-      <c r="D113" t="s">
-        <v>30</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="C132" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C133" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D133" t="s">
+        <v>70</v>
+      </c>
+      <c r="E133" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>55</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C134" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>55</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C135" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D135" t="s">
+        <v>70</v>
+      </c>
+      <c r="E135" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C136" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>43</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C137" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D137" t="s">
+        <v>70</v>
+      </c>
+      <c r="E137" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45794</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C139" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C140" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D140" t="s">
+        <v>70</v>
+      </c>
+      <c r="E140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45795</v>
+      </c>
+      <c r="D141" t="s">
+        <v>70</v>
+      </c>
+      <c r="E141" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45801</v>
+      </c>
+      <c r="C142" s="1">
+        <v>45802</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45801</v>
+      </c>
+      <c r="C143" s="1">
+        <v>45802</v>
+      </c>
+      <c r="D143" t="s">
+        <v>70</v>
+      </c>
+      <c r="E143" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45801</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45801</v>
+      </c>
+      <c r="D145" t="s">
+        <v>70</v>
+      </c>
+      <c r="E145" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45802</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45802</v>
+      </c>
+      <c r="D147" t="s">
+        <v>70</v>
+      </c>
+      <c r="E147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>59</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45808</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>34</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45808</v>
+      </c>
+      <c r="C149" s="1">
+        <v>45809</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>34</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45808</v>
+      </c>
+      <c r="C150" s="1">
+        <v>45809</v>
+      </c>
+      <c r="D150" t="s">
+        <v>70</v>
+      </c>
+      <c r="E150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45808</v>
+      </c>
+      <c r="C151" s="1">
+        <v>45809</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" t="s">
+        <v>31</v>
+      </c>
+      <c r="F151" t="s">
+        <v>74</v>
+      </c>
+      <c r="G151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45808</v>
+      </c>
+      <c r="C152" s="1">
+        <v>45809</v>
+      </c>
+      <c r="D152" t="s">
+        <v>70</v>
+      </c>
+      <c r="E152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F152" t="s">
+        <v>74</v>
+      </c>
+      <c r="G152" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>67</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45808</v>
+      </c>
+      <c r="C153" s="1">
+        <v>45809</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>67</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45808</v>
+      </c>
+      <c r="C154" s="1">
+        <v>45809</v>
+      </c>
+      <c r="D154" t="s">
+        <v>70</v>
+      </c>
+      <c r="E154" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>59</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45809</v>
+      </c>
+      <c r="D155" t="s">
+        <v>70</v>
+      </c>
+      <c r="E155" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F113">
+    <sortCondition ref="B1:B113"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>